--- a/data/trans_orig/P34B04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Provincia-trans_orig.xlsx
@@ -642,7 +642,7 @@
         <v>0.5663427082759018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4441277395313967</v>
+        <v>0.4441277395313966</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.06888356880986479</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3585438767696122</v>
+        <v>0.3699739923175361</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4021161426967416</v>
+        <v>0.3981623329967822</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2769331666421591</v>
+        <v>0.2731597749633156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01367388724504395</v>
+        <v>0.01365810677879229</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04323099602417806</v>
+        <v>0.05094804003872725</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01081891532578713</v>
+        <v>0.011000460908804</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2126658344736019</v>
+        <v>0.2088199032399721</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2510417360472728</v>
+        <v>0.2491478365663518</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.156567149820783</v>
+        <v>0.1512974003422259</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6754745495143145</v>
+        <v>0.7013016017338359</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7574663069476519</v>
+        <v>0.7830916413045766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7005072072045303</v>
+        <v>0.7121309100253991</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1899437829548902</v>
+        <v>0.1883182249686297</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2139382164369253</v>
+        <v>0.2140757155720533</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06045119664301263</v>
+        <v>0.06147844972853988</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3926876405470643</v>
+        <v>0.3981192615294519</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4530092427855862</v>
+        <v>0.4539269917728605</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3657591928183006</v>
+        <v>0.3868592012938049</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2614948335267822</v>
+        <v>0.2537081205458625</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2298429618245016</v>
+        <v>0.2311069906998993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1855943744414243</v>
+        <v>0.1955026037810861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007772640626074997</v>
+        <v>0.007401579042089799</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01316008309846898</v>
+        <v>0.0149830647694711</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1363538905959656</v>
+        <v>0.1352375874658617</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1283240824349016</v>
+        <v>0.1296103406681193</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09167129919947559</v>
+        <v>0.09392085761645796</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4810751368804026</v>
+        <v>0.4614364120175066</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4116305332206719</v>
+        <v>0.4151505107176388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4780297242269224</v>
+        <v>0.5351005245308471</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05476869324726945</v>
+        <v>0.05126015742926858</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08503441206187554</v>
+        <v>0.08379784980848828</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0375494433475913</v>
+        <v>0.0322747012336634</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2473505440084316</v>
+        <v>0.250134012512124</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2260779527508007</v>
+        <v>0.2314852953646482</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2341515001507509</v>
+        <v>0.2331369566037828</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.1199840190623994</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1073989005615855</v>
+        <v>0.1073989005615854</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1840544482046269</v>
+        <v>0.1765598157677614</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1531353217335143</v>
+        <v>0.1538727147843701</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06703517590979458</v>
+        <v>0.06951404550916758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008304261854437044</v>
+        <v>0.008522889233419035</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003122736205793067</v>
+        <v>0.003118330088211139</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03480726874067906</v>
+        <v>0.03739010149668381</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1021644091341377</v>
+        <v>0.1005322857258956</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08147547525791943</v>
+        <v>0.08083735157553441</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07051687748317954</v>
+        <v>0.06615380968466147</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3829888383721098</v>
+        <v>0.373707417658098</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.350615900782024</v>
+        <v>0.3440053403993784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2473880683282124</v>
+        <v>0.2584055596808835</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07088187284666253</v>
+        <v>0.07604754359735469</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03882220508941304</v>
+        <v>0.03730189454249366</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1619635410539927</v>
+        <v>0.1672725701541185</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2020360640462361</v>
+        <v>0.2051942085919017</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1755084512341172</v>
+        <v>0.1686127417666107</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1769306620151756</v>
+        <v>0.164389381047356</v>
       </c>
     </row>
     <row r="13">
@@ -987,7 +987,7 @@
         <v>0.2747868747499921</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.3105564864445072</v>
+        <v>0.3105564864445071</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2827874198972021</v>
+        <v>0.2826156365876362</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3517058517037288</v>
+        <v>0.3458355419277865</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.323981642952241</v>
+        <v>0.3229202468695498</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04413701394164007</v>
+        <v>0.04904367877764006</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04755085950573985</v>
+        <v>0.04724618689139179</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09049659560152748</v>
+        <v>0.08827988804692856</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1757250550396268</v>
+        <v>0.1756886291510725</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2063905521138878</v>
+        <v>0.2029535945293877</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2273641561384358</v>
+        <v>0.2276139708937662</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5013704990344462</v>
+        <v>0.5153596170961344</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.653110470794005</v>
+        <v>0.6499895623840353</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6929096875655093</v>
+        <v>0.6930133627577334</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1904841877890844</v>
+        <v>0.1854766409899748</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1401050338916055</v>
+        <v>0.1405302073887315</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.286181060433184</v>
+        <v>0.2821326144429736</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3173420790423248</v>
+        <v>0.3123417415329169</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3661896551470477</v>
+        <v>0.3699699041553299</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4254806932330755</v>
+        <v>0.4437505766245124</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>0.06135255043846118</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.05425051352454711</v>
+        <v>0.0542505135245471</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2361373088366336</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3195376666265348</v>
+        <v>0.3170095312669303</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1446049123653258</v>
+        <v>0.1443397083589189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3004031965822367</v>
+        <v>0.3221225778240199</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02015584140414959</v>
+        <v>0.02082844642932714</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02673613278786244</v>
+        <v>0.02632698917034785</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.158582441978162</v>
+        <v>0.1612604437300787</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0936397896587039</v>
+        <v>0.08743843603258891</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1745532051296508</v>
+        <v>0.1727003477655822</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6695287800384109</v>
+        <v>0.6762774837383081</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4441779385822219</v>
+        <v>0.4155922340119835</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7101667286247968</v>
+        <v>0.7179996324573722</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05442644231604151</v>
+        <v>0.05431930621724831</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1537029620856142</v>
+        <v>0.1611639539580619</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.106377158172747</v>
+        <v>0.1019195784117692</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.335590965948543</v>
+        <v>0.3401449049629826</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2462278388431003</v>
+        <v>0.2456454734200172</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3764320524322176</v>
+        <v>0.3736496780486874</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0.1361077278002951</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.0999705929012937</v>
+        <v>0.09997059290129365</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.2174201875291133</v>
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.243132282219934</v>
+        <v>0.2383893020842358</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1829255173558153</v>
+        <v>0.1758706992718623</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2251234150066405</v>
+        <v>0.2161561192404067</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02022559983523129</v>
+        <v>0.02053680406362491</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06258891990282732</v>
+        <v>0.06457175218710334</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04173296029366864</v>
+        <v>0.04100494698463215</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1431744200323017</v>
+        <v>0.1492786443833956</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1435380876174093</v>
+        <v>0.1452984353939538</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1544183168582313</v>
+        <v>0.1505087442859701</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5561998296830187</v>
+        <v>0.5628434695101608</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4460407188348059</v>
+        <v>0.4410500460314652</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5147810315421913</v>
+        <v>0.5046023583114296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1859057788831132</v>
+        <v>0.182449147428629</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2625908120474304</v>
+        <v>0.2557253112385542</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2090453496355303</v>
+        <v>0.2136523671284341</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3293468694687293</v>
+        <v>0.3162247057958984</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3060893881849773</v>
+        <v>0.3027158513474792</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3039043818885585</v>
+        <v>0.3194270413270407</v>
       </c>
     </row>
     <row r="22">
@@ -1314,7 +1314,7 @@
         <v>0.2599687681053016</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.306117012813834</v>
+        <v>0.3061170128138341</v>
       </c>
     </row>
     <row r="23">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2386651904513568</v>
+        <v>0.2393237916815007</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3235338426686921</v>
+        <v>0.3298859500930947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3411770996097869</v>
+        <v>0.3375085333480801</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01194052569883066</v>
+        <v>0.01158292031666979</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06819103571870559</v>
+        <v>0.06595735906305088</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1210683461099745</v>
+        <v>0.1226694873057176</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1271354875011559</v>
+        <v>0.1296408767502505</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2062393249737246</v>
+        <v>0.2102974687643191</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2507490097315256</v>
+        <v>0.2465703269708685</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4032311919040759</v>
+        <v>0.4051634516380829</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5285030240960614</v>
+        <v>0.5497884172658688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.576076356997503</v>
+        <v>0.5801316246943818</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05198235132665593</v>
+        <v>0.05087428216016666</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1572140201667086</v>
+        <v>0.1637605752125409</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2487458371276939</v>
+        <v>0.2494102941059186</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2124228273279498</v>
+        <v>0.2149374436408762</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3258601445427589</v>
+        <v>0.324915410436853</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3848754632751782</v>
+        <v>0.3854982387756943</v>
       </c>
     </row>
     <row r="25">
@@ -1414,7 +1414,7 @@
         <v>0.0479205976985122</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.0759161306601726</v>
+        <v>0.07591613066017262</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.1579095644450074</v>
@@ -1423,7 +1423,7 @@
         <v>0.1327636364103961</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.3470921510358354</v>
+        <v>0.3470921510358353</v>
       </c>
     </row>
     <row r="26">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2245035633786892</v>
+        <v>0.2256023639905286</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1664355733071702</v>
+        <v>0.1683094259328754</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5156722332362547</v>
+        <v>0.5148436911986833</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.009749158728313742</v>
+        <v>0.01094943218400575</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02590900923804816</v>
+        <v>0.02624498917356382</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04795741305251275</v>
+        <v>0.04523312977444611</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1207165183350712</v>
+        <v>0.1229788168118568</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0995185521856685</v>
+        <v>0.1035724905378021</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2830849095844181</v>
+        <v>0.2856791873225754</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3942394765978649</v>
+        <v>0.3912902795376556</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2952465485935579</v>
+        <v>0.3009002345224995</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7680988032407957</v>
+        <v>0.7587615779612871</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05792060112459859</v>
+        <v>0.05832732852946245</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08179394516366192</v>
+        <v>0.0805213771853677</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1260452453258575</v>
+        <v>0.1220934805360711</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2036291259292857</v>
+        <v>0.212866427564174</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1691037342274723</v>
+        <v>0.1701937496105868</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4204048889402021</v>
+        <v>0.4156617537053293</v>
       </c>
     </row>
     <row r="28">
@@ -1523,7 +1523,7 @@
         <v>0.07034506183827244</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.09374483141801992</v>
+        <v>0.09374483141801991</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.1904765834553699</v>
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.309030489229004</v>
+        <v>0.3119768215356488</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3016830067422674</v>
+        <v>0.3029477070127816</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3873372946930012</v>
+        <v>0.3855687351356455</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02640621021531458</v>
+        <v>0.02734842371568102</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05389097457870796</v>
+        <v>0.05529243028619868</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07458260608540199</v>
+        <v>0.07507594909531251</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1680216879850393</v>
+        <v>0.1718602914695365</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1813750732861761</v>
+        <v>0.1799649187333998</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2288629419133454</v>
+        <v>0.2333706420283794</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3892090217737613</v>
+        <v>0.3920140203019374</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3835051901825283</v>
+        <v>0.3838860502914406</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.491582990039362</v>
+        <v>0.4899484203430992</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.05407197267115471</v>
+        <v>0.05309359331937907</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.08912077843102721</v>
+        <v>0.08796800485785367</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1149791885458779</v>
+        <v>0.115280654313036</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2111972251436917</v>
+        <v>0.2139030167867113</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2239002105445873</v>
+        <v>0.2249465822872194</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2902121916427235</v>
+        <v>0.289509500137203</v>
       </c>
     </row>
     <row r="31">
